--- a/src/main/webapp/WEB-INF/public/college.xlsx
+++ b/src/main/webapp/WEB-INF/public/college.xlsx
@@ -18,10 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>学院id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学院名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,6 +91,10 @@
   </si>
   <si>
     <t>继续教育学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学院号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,7 +442,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -452,10 +452,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -463,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -479,7 +479,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -487,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -495,7 +495,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -503,7 +503,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -511,7 +511,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -519,7 +519,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -527,7 +527,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -535,7 +535,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -543,7 +543,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -551,7 +551,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -559,7 +559,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -567,7 +567,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -575,7 +575,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -583,7 +583,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -591,7 +591,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -599,7 +599,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
